--- a/MySQl指南.xlsx
+++ b/MySQl指南.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{10F3F001-C24C-4A32-B94B-3334BF28DCB9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="安装" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,157 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>检查是否已安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm -qa | grep mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local</t>
+  </si>
+  <si>
+    <t>tar -zxvf mysql-xxxx.tar.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.j解压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.添加系统mysql组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sudo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> groupadd mysql</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.添加mysql用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo useradd -r -g mysql mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.查看是否添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.修改当前目录拥有者为mysql用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sudo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> chown -R mysql:mysql ./</t>
+    </r>
+  </si>
+  <si>
+    <t>./scripts/mysql_install_db --user=mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装autoconf库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum -y install autoconf</t>
+  </si>
+  <si>
+    <t>chown -R root:root ./ chown -R mysql:mysql data</t>
+  </si>
+  <si>
+    <t>7.修改目录拥有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./support-files/mysql.server start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1 如果报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps -ef|grep masql</t>
+  </si>
+  <si>
+    <t>杀掉对应进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./bin/mysqladmin -u root -h localhost.localdomain password 'root'</t>
+  </si>
+  <si>
+    <t>11.连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./bin/mysql -h127.0.0.1 -uroot -proot</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +177,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +246,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +275,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228057</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C804F4F-4C66-4E5C-B07C-1135B73D26E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3838575"/>
+          <a:ext cx="4342857" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675419</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5850E5AC-F343-450A-93E1-41BA357F22F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6210300"/>
+          <a:ext cx="6847619" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656371</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D494133-CD14-44FB-A9C9-9A31E2F87D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10744200"/>
+          <a:ext cx="6828571" cy="2361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665895</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C02419-5323-4A64-93DD-8AB6BA696F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14544675"/>
+          <a:ext cx="6838095" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>589705</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>132926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD943E4-D0CC-41BF-849E-B3A090B91629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16716375"/>
+          <a:ext cx="6761905" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +764,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MySQl指南.xlsx
+++ b/MySQl指南.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{10F3F001-C24C-4A32-B94B-3334BF28DCB9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89623C4D-A0A5-4C8D-A225-F11377B801D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
+    <sheet name="Docker安装主从复制" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>检查是否已安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,12 +165,89 @@
   <si>
     <t>./bin/mysql -h127.0.0.1 -uroot -proot</t>
   </si>
+  <si>
+    <t>编写master的my.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master.my.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写slave的my.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave.my.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">编写docker-compose文件
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/ec2-user/master.my.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是上一步的cnf位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mysql/my.cnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要创建文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>networks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:注释掉了。如果IIP地址不同，需要完成填写</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决navicat无法登陆的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入容器后，进入mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it -uroot ec2-user_mysql-slave_1 /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行      docker-compose  up -d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +297,22 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -246,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -260,12 +354,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{87B80387-E6B2-4720-BE15-2EEAD4881322}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -499,6 +624,662 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4569328" cy="1986826"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A24411-545B-44CF-AB8B-9AC946F6A89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="647700"/>
+          <a:ext cx="4569328" cy="1986826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[mysqld]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pid-file        = /var/run/mysqld/mysqld.pid</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>socket          = /var/run/mysqld/mysqld.sock</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>datadir         = /var/lib/mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>secure-file-priv= NULL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>server-id=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t># Disabling symbolic-links is recommended to prevent assorted security risks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>symbolic-links=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t># Custom config should go here</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>!includedir /etc/mysql/conf.d/</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4569328" cy="2159053"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23BDFF8-9D83-4E4F-BC1C-40AEFFB263ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3381375"/>
+          <a:ext cx="4569328" cy="2159053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[mysqld]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pid-file        = /var/run/mysqld/mysqld.pid</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>socket          = /var/run/mysqld/mysqld.sock</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>datadir         = /var/lib/mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>secure-file-priv= NULL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>server-id=2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>relay_log_recovery=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t># Disabling symbolic-links is recommended to prevent assorted security risks</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>symbolic-links=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t># Custom config should go here</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>!includedir /etc/mysql/conf.d/</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEDBDC5-4FFC-4A28-85B5-118EF0C9A72D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6186485"/>
+          <a:ext cx="5310188" cy="6510340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>version: '2'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>services:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  mysql-master:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   image: docker.io/mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   networks:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>       jznet:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>         ipv4_address: 54.249.79.156</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   volumes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - /root/data/mysql-master:/var/lib/mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - /home/ec2-user/master.my.cnf:/mysql/my.cnf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - "3306:3306"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - MYSQL_DATABASE=root</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - MYSQL_ROOT_PASSWORD=root</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  mysql-slave:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   image: docker.io/mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>#   networks:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>#       jznet:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>#         ipv4_address: 54.249.79.156</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   volumes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - /root/data/mysql-slave:/var/lib/mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - /home/ec2-user/slave.my.cnf:/mysql/my.cnf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   ports:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - "3307:3306"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   environment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - MYSQL_DATABASE=root</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     - MYSQL_ROOT_PASSWORD=root</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>networks:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  jznet:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    driver: bridge</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    ipam:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      driver: default</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      config:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>      - subnet: 54.249.79.156/26</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BD8DBB-1CD1-4232-875D-14E976868F19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="6581775"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4592796" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8469DB-6A74-4092-98D3-7F62F41DEE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14954250"/>
+          <a:ext cx="4592796" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alter user 'root'@'localhost' identified with mysql_native_password by 'root';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alter user 'root'@'%' identified with mysql_native_password by 'root';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -767,170 +1548,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9790F65-386A-48C0-B9AF-284778E662A5}">
+  <dimension ref="A1:R79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="I43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9">
+      <c r="I51" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/MySQl指南.xlsx
+++ b/MySQl指南.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89623C4D-A0A5-4C8D-A225-F11377B801D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BD5A5-E3DB-45C3-96A7-D2334EA1C69B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,6 +1280,311 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="15316200" cy="4053546"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7336442A-73CE-40D7-9C81-39CCDD47E86E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="10772775"/>
+          <a:ext cx="15316200" cy="4053546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>docker network create -d bridge my-bridge</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run --name mysql-master -p:3306:3306 -v  /home/ec2-user/master.my.cnf:/mysql/my.cnf -e MYSQL_ROOT_PASSWORD=root </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--network my-bridge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--privileged=true </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  -d mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>docker run --name mysql-slave -p:3307:3306 -v  /home/ec2-user/slave.my.cnf:/mysql/my.cnf -e MYSQL_ROOT_PASSWORD=root </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--network my-bridge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--privileged=true </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> -d mysql</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>docker network inspect bridge my-bridge</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GRANT REPLICATION SLAVE ON *.* TO 'root'@'%';</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reset slave;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>change master to master_host='</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>172.20.0.2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>master_user='root',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>master_password='root',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>master_log_file='binlog.000002',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>master_log_pos=155;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>show slave status\G</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>start slave;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1548,7 +1853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
@@ -1726,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9790F65-386A-48C0-B9AF-284778E662A5}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/MySQl指南.xlsx
+++ b/MySQl指南.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BD5A5-E3DB-45C3-96A7-D2334EA1C69B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="Docker安装主从复制" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>检查是否已安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,27 +181,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">编写docker-compose文件
+    <t xml:space="preserve">清理docker相关内容（非必须，除非没有空间，否则不适用）
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/home/ec2-user/master.my.cnf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是上一步的cnf位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mysql/my.cnf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要创建文件夹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <t>创建network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run --name mysql-slave -p:3307:3306 -v  /home/ec2-user/slave.my.cnf:/etc/my.cnf -e MYSQL_ROOT_PASSWORD=root --network my-bridge  --privileged=true  -d mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建master容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建slave容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/home/ec2-user/</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -212,7 +218,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>networks</t>
+      <t>master.my.cnf</t>
     </r>
     <r>
       <rPr>
@@ -222,32 +228,163 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:注释掉了。如果IIP地址不同，需要完成填写</t>
+      <t>:/etc/my.cnf  将前面所写的master.my.cnf 挂载到容器内。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决navicat无法登陆的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入容器后，进入mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker exec -it -uroot ec2-user_mysql-slave_1 /bin/sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行      docker-compose  up -d</t>
+    <r>
+      <t>/home/ec2-user/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slave.my.cnf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:/etc/my.cnf  将前面所写的slave.my.cnf 挂载到容器内。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否将容器加入network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker system prune --volumes 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker network create -d bridge my-bridge
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker run --name mysql-master -p:3306:3306 -v  /home/ec2-user/master.my.cnf:/etc/my.cnf -e MYSQL_ROOT_PASSWORD=root --network my-bridge --privileged=true   -d mysql
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入master 容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户并赋权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE USER 'slaveuser'@'%' IDENTIFIED WITH sha256_password BY '0000';
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRANT REPLICATION SLAVE ON *.* TO 'slaveuser'@'%';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入slave 容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it -uroot mysql-slave /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host为network中ipv4的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_file为master的file名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log pos为master的position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在slave容器中输入master相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reset slave;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">flush privileges;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">docker network inspect bridge my-bridge </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker exec -it -uroot mysql-master /bin/sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql -uroot -proot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show master status;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql -uroot -proot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">start slave;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">show slave status\G
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到 Waiting for master to send event 状态表示成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -357,6 +494,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,7 +527,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{87B80387-E6B2-4720-BE15-2EEAD4881322}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -422,7 +563,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C804F4F-4C66-4E5C-B07C-1135B73D26E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C804F4F-4C66-4E5C-B07C-1135B73D26E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,7 +607,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5850E5AC-F343-450A-93E1-41BA357F22F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5850E5AC-F343-450A-93E1-41BA357F22F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -510,7 +651,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D494133-CD14-44FB-A9C9-9A31E2F87D19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D494133-CD14-44FB-A9C9-9A31E2F87D19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -554,7 +695,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C02419-5323-4A64-93DD-8AB6BA696F64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62C02419-5323-4A64-93DD-8AB6BA696F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -598,7 +739,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD943E4-D0CC-41BF-849E-B3A090B91629}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4FD943E4-D0CC-41BF-849E-B3A090B91629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,7 +783,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A24411-545B-44CF-AB8B-9AC946F6A89A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2A24411-545B-44CF-AB8B-9AC946F6A89A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +899,7 @@
         <xdr:cNvPr id="4" name="文本框 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23BDFF8-9D83-4E4F-BC1C-40AEFFB263ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A23BDFF8-9D83-4E4F-BC1C-40AEFFB263ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,281 +1008,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>33335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>509588</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="文本框 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEDBDC5-4FFC-4A28-85B5-118EF0C9A72D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6186485"/>
-          <a:ext cx="5310188" cy="6510340"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>version: '2'</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>services:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  mysql-master:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   image: docker.io/mysql</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   networks:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>       jznet:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>         ipv4_address: 54.249.79.156</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   volumes:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - /root/data/mysql-master:/var/lib/mysql</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - /home/ec2-user/master.my.cnf:/mysql/my.cnf</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   ports:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - "3306:3306"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   environment:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - MYSQL_DATABASE=root</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - MYSQL_ROOT_PASSWORD=root</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  mysql-slave:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   image: docker.io/mysql</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>#   networks:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>#       jznet:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>#         ipv4_address: 54.249.79.156</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   volumes:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - /root/data/mysql-slave:/var/lib/mysql</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - /home/ec2-user/slave.my.cnf:/mysql/my.cnf</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   ports:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - "3307:3306"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>   environment:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - MYSQL_DATABASE=root</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>     - MYSQL_ROOT_PASSWORD=root</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>networks:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  jznet:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    driver: bridge</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>    ipam:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      driver: default</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      config:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>      - subnet: 54.249.79.156/26</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1155,7 +1021,7 @@
         <xdr:cNvPr id="6" name="文本框 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BD8DBB-1CD1-4232-875D-14E976868F19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{14BD8DBB-1CD1-4232-875D-14E976868F19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,29 +1063,99 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>618130</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8505825"/>
+          <a:ext cx="7961905" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>494406</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14478000"/>
+          <a:ext cx="7152381" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4592796" cy="609013"/>
+    <xdr:ext cx="2714269" cy="1125693"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="文本框 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8469DB-6A74-4092-98D3-7F62F41DEE78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14954250"/>
-          <a:ext cx="4592796" cy="609013"/>
+          <a:off x="0" y="17926050"/>
+          <a:ext cx="2714269" cy="1125693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1247,6 +1183,35 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>change master to master_host='172.19.0.2',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>master_user='</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1256,12 +1221,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>alter user 'root'@'localhost' identified with mysql_native_password by 'root';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:t>slaveuser</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1270,67 +1233,15 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>alter user 'root'@'%' identified with mysql_native_password by 'root';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="15316200" cy="4053546"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7336442A-73CE-40D7-9C81-39CCDD47E86E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="10772775"/>
-          <a:ext cx="15316200" cy="4053546"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:t>',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1339,20 +1250,15 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>docker network create -d bridge my-bridge</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>docker run --name mysql-master -p:3306:3306 -v  /home/ec2-user/master.my.cnf:/mysql/my.cnf -e MYSQL_ROOT_PASSWORD=root </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:t>master_password='0000',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1361,14 +1267,15 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>--network my-bridge</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:t>master_log_file='binlog.000002',</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1377,214 +1284,57 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>--privileged=true </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>  -d mysql</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>docker run --name mysql-slave -p:3307:3306 -v  /home/ec2-user/slave.my.cnf:/mysql/my.cnf -e MYSQL_ROOT_PASSWORD=root </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>--network my-bridge</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>--privileged=true </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t> -d mysql</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>docker network inspect bridge my-bridge</a:t>
+            <a:t>master_log_pos=684;</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>GRANT REPLICATION SLAVE ON *.* TO 'root'@'%';</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>reset slave;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>change master to master_host='</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>172.20.0.2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>',</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>master_user='root',</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>master_password='root',</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>master_log_file='binlog.000002',</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>master_log_pos=155;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>show slave status\G</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>start slave;</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>437349</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>133271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21221700"/>
+          <a:ext cx="6409524" cy="628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1850,171 +1600,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A91"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15">
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15">
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15">
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>31</v>
       </c>
@@ -2028,75 +1778,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9790F65-386A-48C0-B9AF-284778E662A5}">
-  <dimension ref="A1:R79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="I43" s="8" t="s">
+    <row r="34" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M43" t="s">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P43" s="8" t="s">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" t="s">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="R43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="9" t="s">
+      <c r="I43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="S43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="U43" t="s">
         <v>43</v>
       </c>
-      <c r="E79" t="s">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="9"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
